--- a/src/main/resources/populate/salon.xlsx
+++ b/src/main/resources/populate/salon.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Salon, bureau, loisirs</t>
   </si>
@@ -23,39 +23,21 @@
     <t>Décoration</t>
   </si>
   <si>
-    <t>y compris bougies etc</t>
-  </si>
-  <si>
     <t>Bibliothèque</t>
   </si>
   <si>
-    <t>livres et mags</t>
-  </si>
-  <si>
     <t>Médias</t>
   </si>
   <si>
-    <t>films séries jeux vidéos consoles jeux soc</t>
-  </si>
-  <si>
     <t>Vacances</t>
   </si>
   <si>
-    <t>Collections</t>
-  </si>
-  <si>
     <t>Paperasse</t>
   </si>
   <si>
-    <t>docs, courrier…</t>
-  </si>
-  <si>
     <t>Fournitures de bureau</t>
   </si>
   <si>
-    <t xml:space="preserve"> et papeterie</t>
-  </si>
-  <si>
     <t>Décoration saisonnière</t>
   </si>
   <si>
@@ -63,6 +45,39 @@
   </si>
   <si>
     <t>Animaux</t>
+  </si>
+  <si>
+    <t>Tout ce qui n'est pas rangé dans un meuble prend la poussière. Une décoration imposante est distrayante pour l'esprit. Passe en revue ta décoration (y compris celle qui est rangée dans un carton car tu n'as plus de place pour la sortir) pour ne garder que les choses qui te plaisent vraiment. Ne garde pas tout ce qui te gêne pendant le ménage ou dans tes mouvements au quotidien.</t>
+  </si>
+  <si>
+    <t>Collections et loisirs</t>
+  </si>
+  <si>
+    <t>Ne conserve que les livres et magazines que tu vas effectivement relire. Une grande bibliothèque remplie, c'est peut-être joli, mais c'est surtout fastidieux à entretenir. De plus, les livres s'abîment au fil du temps.&lt;br&gt;Si tu possèdes des livres depuis plusieurs mois ou années mais que tu ne les as toujours pas lus, demande-toi si tu as toujours envie de les lire.&lt;br&gt;Si tu es abonné.e à un magazine mais qu'il ne t'intéresse plus, prend le temps de résilier ton abonnement.&lt;br&gt;Pour alléger ton étagère à livres, prends un abonnement à la bibliothèque, c'est une solution très économique.</t>
+  </si>
+  <si>
+    <t>Ne garde que les films et séries que tu comptes encore regarder.&lt;br&gt;Fais le tri dans tes jeux de société pour conserver ceux avec lesquels tu joues le plus souvent.&lt;br&gt;Débarrasse-toi des consoles de jeu que tu n'utilises plus.&lt;br&gt;Fais le tri dans les jeux vidéo auxquels tu n'as plus touché depuis des mois.&lt;br&gt;Débarrasse-toi des CD que tu n'écoutes plus, ou extraits tous tes CD au format MP3 pour n'en garder aucun.</t>
+  </si>
+  <si>
+    <t>Pour limiter les objets de collection, privilégie les activités liées à ta passion (expositions, conventions, rencontres…) aux objets de collection.&lt;br&gt;Ne garde pas une collection juste parce que tu espères qu'elle prendra de la valeur, que tu as passé du temps à la composer ou que tu y as dépensé de l'argent : la conserver n'y changera rien.&lt;br&gt;Débarrasse-toi des objets liés à des loisirs passés que tu ne pratiques plus et que tu n'as pas fermement l'intention de recommencer rapidement.</t>
+  </si>
+  <si>
+    <t>Essaie de limiter le nombre d'objets réservés aux vacances que tu possèdes : &lt;br&gt;- vêtements (tu as certainement des vêtements du quotidien que tu peux porter en vacances également),&lt;br&gt;- gros matériel (à moins de l'utiliser tous les ans, tu peux emprunter ou louer),&lt;br&gt;- gadgets divers (que tu finis toujours par oublier ou ne pas sortir de ta valise).</t>
+  </si>
+  <si>
+    <t>Débarrasse-toi de tout ce que tes animaux domestiques n'utilisent pas/plus, ce qui est abîmé, mais aussi du matériel acheté pour des animaux que tu n'as plus, si tu n'as pas l'intention d'en ré-adopter.&lt;br&gt;Quelques conseils supplémentaires pour &lt;a href="https://www.theflonicles.be/2018/10/un-chat-zero-dechet.html"&gt;réduire les déchets de son animal de compagnie&lt;/a&gt;.</t>
+  </si>
+  <si>
+    <t>Conserve uniquement les accessoires nécessaires pour les activités physiques que tu pratiques et débarrasse-toi du matériel lié à des activités passées, ou que tu n'as jamais commencées : en les gardant, tu risques de culpabiliser, mais ça ne te motivera probablement pas à t'y mettre si tu n'as pas trouvé la motivation jusque-là...</t>
+  </si>
+  <si>
+    <t>Les décorations de fêtes restent stockées durant une année pour sortir quelques jours ou semaines au mieux. Ne garde que quelques articles pour ta ou tes fêtes préférées. Si passer du temps à installer cette décoration chaque année te semble dénué d'intérêt, aucune obligation de garder un sapin de Noël, des statuettes de lapins à plumes, ou des sachets de toile d'araignée synthétique...</t>
+  </si>
+  <si>
+    <t>Fais le tri pour ne garder que les articles de bureau fonctionnels, dans des quantités utiles. Tu peux faire du superflu en bon état à des associations. Ton matériel de géométrie de l'école ne te servira probablement plus jamais.</t>
+  </si>
+  <si>
+    <t>Planifie régulièrement une session de traitement et rangement de tes papiers pour éviter qu'ils ne s'entassent sur un coin de meuble (et de te retrouver avec des factures en retard !).&lt;br&gt;Classe soigneusement tes documents pour les trouver rapidement et facilement.&lt;br&gt;Ne conserve que les papiers que tu es obligé.e de garder ou qui peuvent t'être utiles dans le futur. Note les délais de conservation sur les documents officiels.&lt;br&gt;Au quotidien, traite tout ce qui peut être traité en moins de 10 minutes immédiatement.</t>
   </si>
 </sst>
 </file>
@@ -98,8 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,6 +424,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -422,77 +443,93 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
